--- a/DDF/Phase2.1/TY_14/TestData.xlsx
+++ b/DDF/Phase2.1/TY_14/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\BackUpProFile\Raghu\DDF\Phase2.1\TY_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\2-2-2022\Bimbo Mobile-TY\DDF\Phase2.1\TY_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
   <si>
     <t>ProductName</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>TC_221</t>
-  </si>
-  <si>
-    <t>TC_222</t>
   </si>
   <si>
     <t>Balance : 0 of</t>
@@ -393,6 +390,39 @@
   </si>
   <si>
     <t>ONSITE INV STATUS: SUCCESS</t>
+  </si>
+  <si>
+    <t>12345678901234500000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>VanLoadAcceptance</t>
+  </si>
+  <si>
+    <t>Van Load Acceptance is not done for Pending Request</t>
+  </si>
+  <si>
+    <t>Stock Downloaded Successfully</t>
+  </si>
+  <si>
+    <t>2022/02/03</t>
+  </si>
+  <si>
+    <t>2022/01/25</t>
+  </si>
+  <si>
+    <t>TC_222_226</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Data3</t>
   </si>
 </sst>
 </file>
@@ -436,13 +466,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,10 +769,11 @@
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="43.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -769,14 +801,17 @@
       <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -793,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -804,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -812,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -820,15 +855,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -839,7 +877,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -847,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -855,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -863,41 +901,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15">
         <v>12345</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,7 +990,7 @@
         <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1043,7 +1096,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +1104,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1073,31 +1126,31 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1106,18 +1159,21 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" t="s">
         <v>119</v>
-      </c>
-      <c r="E39" t="s">
-        <v>120</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1126,31 +1182,34 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1158,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1166,18 +1225,19 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H46">
         <v>33.4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="F47" t="s">
         <v>24</v>
       </c>
@@ -1188,10 +1248,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="F48" t="s">
         <v>39</v>
       </c>
@@ -1201,7 +1262,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -1212,7 +1273,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
         <v>36</v>
@@ -1269,18 +1330,21 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>129</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="H56" t="s">
         <v>42</v>
       </c>
       <c r="I56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" t="s">
         <v>42</v>
@@ -1288,7 +1352,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
         <v>39</v>
@@ -1299,7 +1363,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" t="s">
         <v>60</v>
@@ -1307,7 +1371,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H60">
         <v>123456789</v>
@@ -1315,10 +1379,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s">
         <v>78</v>
-      </c>
-      <c r="F61" t="s">
-        <v>79</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
@@ -1329,23 +1393,23 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s">
         <v>80</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>81</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -1353,70 +1417,70 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65">
         <v>123454</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H65">
         <v>234567</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" t="s">
         <v>88</v>
-      </c>
-      <c r="F66" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
         <v>2</v>
@@ -1424,7 +1488,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
@@ -1432,35 +1496,35 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" t="s">
         <v>103</v>
-      </c>
-      <c r="E73" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" t="s">
         <v>105</v>
       </c>
-      <c r="C74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" t="s">
-        <v>106</v>
-      </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -1468,16 +1532,35 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" t="s">
         <v>110</v>
       </c>
-      <c r="C77" t="s">
-        <v>114</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>111</v>
       </c>
-      <c r="I77" t="s">
-        <v>112</v>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="H79" t="s">
+        <v>126</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/DDF/Phase2.1/TY_14/TestData.xlsx
+++ b/DDF/Phase2.1/TY_14/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>ProductName</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>Data3</t>
+  </si>
+  <si>
+    <t>TC_ID_012</t>
+  </si>
+  <si>
+    <t>Delivery Final Summary</t>
   </si>
 </sst>
 </file>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="D73" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,6 +1565,12 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" t="s">
+        <v>133</v>
+      </c>
       <c r="I80" s="2" t="s">
         <v>128</v>
       </c>
